--- a/邻线干扰参数输入_V002.xlsx
+++ b/邻线干扰参数输入_V002.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李继隆\PycharmProjects\DisturbanceCalculate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李继隆\PycharmProjects\Calculator_ZN_mix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA626CD-33D5-4004-A4DF-15B646482635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B16549A-D094-40A8-BD18-E570D49D7B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,25 @@
     <sheet name="参数设置" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>耦合系数</t>
-  </si>
-  <si>
     <t>主串频率(Hz)</t>
   </si>
   <si>
@@ -88,30 +95,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TB模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IIG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>被串相对位置(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>双端TB</t>
+  </si>
+  <si>
     <t>左发</t>
   </si>
   <si>
-    <t>无TB</t>
+    <t>主串TB模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被串TB模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主串区段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被串区段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT+SVA'</t>
+  </si>
+  <si>
+    <t>4G2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIG2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右发</t>
+  </si>
+  <si>
+    <t>线间距(m)</t>
+  </si>
+  <si>
+    <t>萧县北站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -542,205 +578,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A02832-79FF-4A6D-B60C-EFA8B5E2C25D}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="7" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9" style="4"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>650</v>
-      </c>
-      <c r="H2">
-        <v>650</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>339</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>372</v>
+      </c>
+      <c r="K2" s="4">
+        <v>306</v>
       </c>
       <c r="L2">
+        <v>6.5</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>2300</v>
+      </c>
+      <c r="O2">
         <v>1700</v>
       </c>
-      <c r="M2">
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>25</v>
+      </c>
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>10000</v>
+      </c>
+      <c r="W2">
+        <v>10000</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>322</v>
+      </c>
+      <c r="J3">
+        <v>372</v>
+      </c>
+      <c r="K3" s="4">
+        <v>272</v>
+      </c>
+      <c r="L3">
+        <v>6.5</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>2600</v>
+      </c>
+      <c r="O3">
         <v>2000</v>
       </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>25</v>
-      </c>
-      <c r="T2">
-        <v>10000</v>
-      </c>
-      <c r="U2">
-        <v>10000</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>25</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>10000</v>
+      </c>
+      <c r="W3">
+        <v>10000</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>339</v>
+      </c>
+      <c r="J4">
+        <v>372</v>
+      </c>
+      <c r="K4" s="4">
+        <v>306</v>
+      </c>
+      <c r="L4">
+        <v>6.5</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>2300</v>
+      </c>
+      <c r="O4">
+        <v>1700</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>25</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>10000</v>
+      </c>
+      <c r="W4">
+        <v>10000</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>322</v>
+      </c>
+      <c r="J5">
+        <v>372</v>
+      </c>
+      <c r="K5" s="4">
+        <v>272</v>
+      </c>
+      <c r="L5">
+        <v>6.5</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>2600</v>
+      </c>
+      <c r="O5">
+        <v>2000</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>10000</v>
+      </c>
+      <c r="W5">
+        <v>10000</v>
+      </c>
+      <c r="X5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>372</v>
+      </c>
+      <c r="J6">
+        <v>339</v>
+      </c>
+      <c r="K6" s="4">
+        <v>-306</v>
+      </c>
+      <c r="L6">
+        <v>6.5</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>1700</v>
+      </c>
+      <c r="O6">
+        <v>2300</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <v>10000</v>
+      </c>
+      <c r="W6">
+        <v>10000</v>
+      </c>
+      <c r="X6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>372</v>
+      </c>
+      <c r="J7">
+        <v>322</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-272</v>
+      </c>
+      <c r="L7">
+        <v>6.5</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="O7">
+        <v>2600</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>25</v>
+      </c>
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>10000</v>
+      </c>
+      <c r="W7">
+        <v>10000</v>
+      </c>
+      <c r="X7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>372</v>
+      </c>
+      <c r="J8">
+        <v>339</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-306</v>
+      </c>
+      <c r="L8">
+        <v>6.5</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1700</v>
+      </c>
+      <c r="O8">
+        <v>2300</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>25</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>10000</v>
+      </c>
+      <c r="W8">
+        <v>10000</v>
+      </c>
+      <c r="X8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>372</v>
+      </c>
+      <c r="J9">
+        <v>322</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-272</v>
+      </c>
+      <c r="L9">
+        <v>6.5</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>2000</v>
+      </c>
+      <c r="O9">
+        <v>2600</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>25</v>
+      </c>
+      <c r="U9">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>10000</v>
+      </c>
+      <c r="W9">
+        <v>10000</v>
+      </c>
+      <c r="X9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{A0261C72-6A2E-41EF-A729-561354BE4B73}">
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:Y9" xr:uid="{A0261C72-6A2E-41EF-A729-561354BE4B73}">
       <formula1>"双端TB, 左端单TB, 右端单TB, 无TB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F2" xr:uid="{147B4349-F599-4348-9B67-4CD4F8ABED3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F9" xr:uid="{147B4349-F599-4348-9B67-4CD4F8ABED3C}">
       <formula1>"左发, 右发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O2" xr:uid="{B27A6D8B-5C2D-41B6-8D6D-3B9006182361}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q9" xr:uid="{B27A6D8B-5C2D-41B6-8D6D-3B9006182361}">
       <formula1>"7.5, 10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2" xr:uid="{A0501E20-D3E2-411D-8B26-37477DF94A0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S9" xr:uid="{A0501E20-D3E2-411D-8B26-37477DF94A0C}">
       <formula1>"0,1,2,3,4,5,6,7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M2" xr:uid="{D0DEB131-E2A0-407D-82FF-42E3926D4282}">
-      <formula1>"1700,2000,2300,2600"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{7DDBDCD2-A29F-4757-9999-A83F6DB91757}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9" xr:uid="{7DDBDCD2-A29F-4757-9999-A83F6DB91757}">
       <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S2" xr:uid="{5DA1FA46-804D-4B77-B328-F6A7143BFB04}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:U9" xr:uid="{5DA1FA46-804D-4B77-B328-F6A7143BFB04}">
       <formula1>25</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="T2:U2" xr:uid="{3BB30C3C-8148-42E0-A098-5E3C281DA51F}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="V2:W9" xr:uid="{3BB30C3C-8148-42E0-A098-5E3C281DA51F}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H2" xr:uid="{ADEF8A49-616E-408C-BEB0-5AA0BF196657}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J9" xr:uid="{ADEF8A49-616E-408C-BEB0-5AA0BF196657}">
       <formula1>0</formula1>
       <formula2>650</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{63B166F5-2371-4867-8112-3256DEB6BFEA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9" xr:uid="{63B166F5-2371-4867-8112-3256DEB6BFEA}">
       <formula1>-650</formula1>
       <formula2>650</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{059DEAD2-28BA-418E-995C-F47A685AF2E5}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L9" xr:uid="{059DEAD2-28BA-418E-995C-F47A685AF2E5}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{78D384FE-8E29-4E98-A0BF-6C7F43B6AFD5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 C6:C9" xr:uid="{78D384FE-8E29-4E98-A0BF-6C7F43B6AFD5}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{E2A3F163-BCB5-409D-B7AD-5C54B485062D}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 D6:D9" xr:uid="{E2A3F163-BCB5-409D-B7AD-5C54B485062D}">
       <formula1>0</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O9" xr:uid="{D0DEB131-E2A0-407D-82FF-42E3926D4282}">
+      <formula1>"1700,2000,2300,2600"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H9" xr:uid="{26798988-65D7-408C-BB14-95374E2CA992}">
+      <formula1>"PT+SVA', BPLN"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
